--- a/static/uploads/mau/bangcong/mau_bangchamcong_chitiet_chuachot_kx.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_chitiet_chuachot_kx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E5F369-521E-4B33-A798-6F087F2487CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC645F74-E6C7-4DDA-9DFF-B8A954EF52F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,13 +82,13 @@
     <t>Phòng ban</t>
   </si>
   <si>
-    <t>BẢNG CHẤM CÔNG CHI TIẾT CHƯA CHỐT</t>
-  </si>
-  <si>
     <t>Phút tăng ca đêm</t>
   </si>
   <si>
     <t>HC Category</t>
+  </si>
+  <si>
+    <t>BẢNG CHẤM CÔNG CHI TIẾT CHƯA CHỐT NAM THUẬN</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:44" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -641,7 +641,7 @@
         <v>14</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>15</v>
@@ -656,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
